--- a/public/fh.xlsx
+++ b/public/fh.xlsx
@@ -123,7 +123,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -217,36 +217,44 @@
       <c r="A6" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="n">
-        <v>2961002394</v>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>10</v>
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>ORTH000540</t>
+          <t/>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr">
         <is>
-          <t>MXPD-243S</t>
+          <t/>
         </is>
       </c>
       <c r="F6" s="7" t="inlineStr">
         <is>
-          <t>1/1</t>
-        </is>
-      </c>
-      <c r="G6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7" t="n">
-        <v>1.0</v>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G6" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H6" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="I6" s="7" t="inlineStr">
         <is>
-          <t>新品替换</t>
+          <t/>
         </is>
       </c>
       <c r="J6" s="7" t="inlineStr">
@@ -259,113 +267,775 @@
       <c r="A7" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="n">
-        <v>2961002296</v>
-      </c>
-      <c r="C7" s="7" t="n">
-        <v>30</v>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t>ORTJ000054</t>
+          <t/>
         </is>
       </c>
       <c r="E7" s="7" t="inlineStr">
         <is>
-          <t>MTR-003CUD</t>
+          <t/>
         </is>
       </c>
       <c r="F7" s="7" t="inlineStr">
         <is>
-          <t>1/1</t>
-        </is>
-      </c>
-      <c r="G7" s="7" t="n">
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G7" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H7" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I7" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J7" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I8" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J8" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="H7" s="7" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I7" s="7" t="inlineStr">
-        <is>
-          <t>新品替换</t>
-        </is>
-      </c>
-      <c r="J7" s="7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D11" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J11" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C12" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I12" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J12" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D13" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I13" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H14" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I14" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J14" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F15" s="7" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H15" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I15" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J15" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E16" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F16" s="7" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H16" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I16" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D17" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G17" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H17" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I17" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J17" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C18" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F18" s="7" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G18" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H18" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I18" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J18" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E19" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H19" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I19" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J19" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D20" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E20" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H20" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I20" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J20" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="inlineStr">
         <is>
           <t>总箱数：</t>
         </is>
       </c>
-      <c r="F8" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="8" t="inlineStr">
+      <c r="F21" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
         <is>
           <t>合计：</t>
         </is>
       </c>
-      <c r="H8" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="inlineStr">
+      <c r="H21" s="7" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="inlineStr">
         <is>
           <t>收货人：</t>
         </is>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="8" t="inlineStr">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="inlineStr">
         <is>
           <t>日期：</t>
         </is>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="inlineStr">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="inlineStr">
         <is>
           <t>日期：</t>
         </is>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="10">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
